--- a/HW/day6/deep_eval_results_3metrics.xlsx
+++ b/HW/day6/deep_eval_results_3metrics.xlsx
@@ -79,6 +79,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">您好！為響應節能減碳，本公司提供簡訊帳單服務，您可以至本公司網路</t>
     </r>
@@ -98,6 +99,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">櫃台</t>
     </r>
@@ -117,6 +119,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">帳單申辦</t>
     </r>
@@ -136,6 +139,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">簡訊帳單</t>
     </r>
@@ -155,6 +159,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">申請簡訊帳單，經手機</t>
     </r>
@@ -174,6 +179,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">認證後即可申請成功。申請後，將不再寄送紙本帳單，並可享每期水費減免</t>
     </r>
@@ -193,6 +199,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">元（優惠期限至</t>
     </r>
@@ -212,6 +219,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -231,6 +239,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月止）。
 希望這些資訊對您有幫助！</t>
@@ -243,6 +252,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">可以至台水公司「網路</t>
     </r>
@@ -262,6 +272,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">櫃台」或「</t>
     </r>
@@ -281,6 +292,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">帳單申辦」網頁申請簡訊帳單。需經過手機</t>
     </r>
@@ -300,6 +312,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">認證，申請成功後即自當期或下期改採簡訊通知，不再寄送紙本，並享每期水費減免</t>
     </r>
@@ -319,6 +332,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">元優惠。</t>
     </r>
@@ -340,6 +354,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">什麼是「簡訊帳單」？</t>
     </r>
@@ -359,6 +374,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -378,6 +394,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">本公司為響應節能減碳，提供即時帳單通知服務，將現行紙本帳單改以「簡訊」方式發送，點開簡訊所附的帳單連結，並輸入手機號碼及認證碼，完成驗證程序後即可開啟當期帳單。</t>
     </r>
@@ -397,6 +414,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">來源：</t>
     </r>
@@ -416,6 +434,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">何時開始實施簡訊帳單服務？</t>
     </r>
@@ -435,6 +454,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -454,6 +474,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">自</t>
     </r>
@@ -473,6 +494,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -492,6 +514,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月起實施，首波開放申請對象為「代繳用戶」，於</t>
     </r>
@@ -511,6 +534,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -530,6 +554,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月起簡訊帳單再升級，開放代收用戶</t>
     </r>
@@ -549,6 +574,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">非代繳用戶</t>
     </r>
@@ -568,6 +594,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">也能申請簡訊帳單。</t>
     </r>
@@ -587,6 +614,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">註：代繳是指「以存款帳戶或信用卡自動扣繳水費」。</t>
     </r>
@@ -606,6 +634,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">來源：</t>
     </r>
@@ -625,6 +654,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">如何申請簡訊帳單？</t>
     </r>
@@ -644,6 +674,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -663,6 +694,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">可至本公司網路</t>
     </r>
@@ -682,6 +714,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">櫃台</t>
     </r>
@@ -701,6 +734,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">帳單申辦</t>
     </r>
@@ -720,6 +754,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">簡訊帳單</t>
     </r>
@@ -739,6 +774,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">申請簡訊帳單，經手機</t>
     </r>
@@ -758,6 +794,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">認證後即申請成功，自當期或下期採簡訊帳單，不再寄送紙本帳單，並享每期水費減免</t>
     </r>
@@ -777,6 +814,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">元</t>
     </r>
@@ -796,6 +834,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">優惠期限至</t>
     </r>
@@ -815,6 +854,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -834,6 +874,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月止</t>
     </r>
@@ -853,6 +894,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -872,6 +914,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -891,6 +934,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">橘子支付繳費流程</t>
     </r>
@@ -910,6 +954,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">十三</t>
     </r>
@@ -929,6 +974,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">全支付</t>
     </r>
@@ -948,6 +994,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：輸入水號或掃描水單</t>
     </r>
@@ -967,6 +1014,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，即可查詢帳單及繳費，並可綁定水號以收到帳單通知。</t>
     </r>
@@ -986,6 +1034,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">全支付</t>
     </r>
@@ -1005,6 +1054,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">繳費流程</t>
     </r>
@@ -1024,6 +1074,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">十四</t>
     </r>
@@ -1043,6 +1094,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">全盈支付</t>
     </r>
@@ -1062,6 +1114,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">全盈</t>
     </r>
@@ -1081,6 +1134,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">：於全家便利商店</t>
     </r>
@@ -1100,6 +1154,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">點選「全盈</t>
     </r>
@@ -1119,6 +1174,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">」，輸入水號即可查詢帳單及繳費。</t>
     </r>
@@ -1138,6 +1194,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">全盈支付繳費流程</t>
     </r>
@@ -1157,6 +1214,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">來源：</t>
     </r>
@@ -1176,6 +1234,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">繳費簡介 </t>
     </r>
@@ -1195,6 +1254,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">繳費期限</t>
     </r>
@@ -1214,6 +1274,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -1233,6 +1294,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">付、</t>
     </r>
@@ -1252,6 +1314,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">拍錢包、</t>
     </r>
@@ -1271,6 +1334,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">等行動支付</t>
     </r>
@@ -1290,6 +1354,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">可直接輸入水號繳納水費。三、可於本網站首頁，點選「線上繳費」，選擇「信用卡繳費」或「網路繳費」，線上進行繳費。四、水費單代收期限為次月</t>
     </r>
@@ -1309,6 +1374,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日，衡量補寄水費通知單郵寄時程，仍在超商、銀行代收期限內時，可受理用戶補單申請，自當月</t>
     </r>
@@ -1328,6 +1394,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日起至次月</t>
     </r>
@@ -1347,6 +1414,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日截止受理。例如：</t>
     </r>
@@ -1366,6 +1434,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月份帳單代收期限為</t>
     </r>
@@ -1385,6 +1454,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -1404,6 +1474,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日，補單受理至</t>
     </r>
@@ -1423,6 +1494,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -1442,6 +1514,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日止。倘有連續數期未收到通知單時，請通知用水當地服務</t>
     </r>
@@ -1461,6 +1534,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">營運</t>
     </r>
@@ -1480,6 +1554,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所協助處理。五、倘前期水費未繳，請就近至本公司各地服務所繳費以免停水。六、二期催繳欠費受限於繳費期限，恕不開放補寄帳單。</t>
     </r>
@@ -1499,6 +1574,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">來源：</t>
     </r>
@@ -1518,6 +1594,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">如何取消委託金融機構或郵局代繳水費？</t>
     </r>
@@ -1537,6 +1614,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -1556,6 +1634,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一、請用戶攜帶近期水費單據、身分證、開戶印章、存摺或信用卡，向已開戶之郵局或金融機構或本公司用水當地服務（營運）所辦理終止委託代繳即可。二、亦可電洽用水當地服務（營運）所，或於本網站</t>
     </r>
@@ -1575,6 +1654,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">網路</t>
     </r>
@@ -1594,6 +1674,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">櫃台</t>
     </r>
@@ -1613,6 +1694,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">線上申辦，申請取消委託代繳：</t>
     </r>
@@ -1632,6 +1714,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">辦理取消委託代繳，</t>
     </r>
@@ -1663,6 +1746,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年</t>
     </r>
@@ -1682,6 +1766,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">月</t>
     </r>
@@ -1722,6 +1807,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">簡訊帳單</t>
     </r>
@@ -1753,6 +1839,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">這是正常現象。自來水在淨水處理過程中會加氯消毒，以符合飲用水水質標準（</t>
     </r>
@@ -1772,6 +1859,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">毫克</t>
     </r>
@@ -1791,6 +1879,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">公升）。輕微的消毒水味代表水質是衛生安全的，對人體健康無影響。</t>
     </r>
@@ -1812,6 +1901,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">請問至家庭或由水廠送出之自來水溶氧濃度平均放範圍為何 </t>
     </r>
@@ -1831,6 +1921,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -1850,6 +1941,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">一般而言溶氧含量主要係追蹤水污染狀況之指標之一，清淨的河流的水質溶氧量可接近飽和溶氧量，水溫影響溶氧高低，溫度愈高溶氧量愈低，一般而言淨水處理後自來水溶氧量均較污染之水高，目前自來水之飲用水水質標準，未規範檢測水之溶氧濃度項目。</t>
     </r>
@@ -1869,6 +1961,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">來源：</t>
     </r>
@@ -1888,6 +1981,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">煮完水後發現水中竟然有懸浮物像雪花一樣飄在表面是不是水質的問題</t>
     </r>
@@ -1907,6 +2001,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -1926,6 +2021,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">水煮沸後水中有懸浮物，是懸浮之細小碳酸鈣，一般水中溶解的鈣離子和鎂離子以碳酸鈣表示即所稱硬度，水中硬度可分為暫時硬度與永久硬度，暫時硬度是指以氫碳酸鹽方式存在者。</t>
     </r>
@@ -1945,6 +2041,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">當它被加熱煮沸時會變成碳酸鈣白色固體而從水中析出，較細小之碳酸鈣不會沉澱，懸浮於水中，一般地下水常含有氫碳酸鈣，當被煮沸時會變成碳酸鈣（即俗稱的鍋垢），根據國內外文獻資料，它的存在於自來水中的濃度對人體健康並無影響。</t>
     </r>
@@ -1964,6 +2061,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">我國「飲用水水質</t>
     </r>
@@ -1983,6 +2081,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">新房子住了大概有三個月，我家的浴室地板、馬桶及洗臉盆的磁磚上面都會有粉紅色的水漬，有時候洗臉時會聞到有濃濃的消毒藥水味，觀察水在流出來的時候並沒有任何顏色，是透明的，這到底是水質有問題還是有別的原因</t>
     </r>
@@ -2002,6 +2101,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -2021,6 +2121,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">新房子中衛浴區使用三個月磁磚表面會有粉紅色水漬，可能為剛使用時水塔管線設備之積水中鐵氧化物較多，用水後導致衛浴表面積存較多鐵氧化物所致，此經清洗及使用一段時間後，這種現象應可消除。至於洗臉時會聞到消毒水味，可能為新設管線使用接著劑的味道，剛搬入新房子時建議不要直接使用自來水作為飲用水</t>
     </r>
@@ -2040,6 +2141,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">此時可儘量用水於沖廁、擦洗地板、澆花、洗滌衣物等用途，尤其是早上啟動整晚未用自來水的時候</t>
     </r>
@@ -2059,6 +2161,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -2078,6 +2181,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">另外，為確保自來水符合安全衛生，避免水媒疾病的發生，台水公司供應之自來水會經加氯消毒處理，且須符合我國「飲用水水質標準」之自由有效餘氯含量</t>
     </r>
@@ -2097,6 +2201,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">毫克／公升，天然災害期間為</t>
     </r>
@@ -2116,6 +2221,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">毫克／公升</t>
     </r>
@@ -2135,6 +2241,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，對一般人而言，這種濃度的自來水聞起來或喝起來是不會有明顯的味道，惟某些嗅覺或味覺較敏感的人仍會感覺到較重的消毒水味，如仍存有</t>
     </r>
@@ -2154,6 +2261,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">水煮沸後喝起來有臭臭的味道</t>
     </r>
@@ -2173,6 +2281,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">有藥劑可檢測是什麼問題嗎</t>
     </r>
@@ -2192,6 +2301,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -2211,6 +2321,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">在飲用水水質標準判定嗅覺異味標準之項目為「臭度」，其標準為物理性嗅覺感官，故無法以藥劑檢測之。</t>
     </r>
@@ -2230,6 +2341,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">來源：</t>
     </r>
@@ -2249,6 +2361,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">住宅公寓疑似有油漆（有機溶劑）污染水塔，已經有請人來清洗水塔了，可是水中還是有很重的有機溶劑味道，不知道有什麼辦法可以解決這個問題？</t>
     </r>
@@ -2268,6 +2381,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -2287,6 +2401,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">若有機溶劑污染水塔嚴重，建議更換水塔，且水塔務必加蓋上鎖，且用大量清水沖洗管路。</t>
     </r>
@@ -2306,6 +2421,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">若有機溶劑污染水塔較輕微，建議近期內家中飲用水改用外購包裝飲用水，經一段時間如無明顯油漆味道，再回復使用為飲用水用途，惟為安全起見仍以水龍頭前裝活性炭淨水裝置過濾吸附較為保險，且裝置之活性炭要定期更換之。</t>
     </r>
@@ -2325,6 +2441,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">至於家中屋內經水塔後之供水，如欲進一步確認是否有有機溶劑等污染，可洽環保署環境檢驗所認證合格之實驗室辦理檢測（請上網搜尋：環境檢驗測定機構查詢）。</t>
     </r>
@@ -2344,6 +2461,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">來源：</t>
     </r>
@@ -2384,6 +2502,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">輕微的消毒水味代表水質是衛生安全的</t>
     </r>
@@ -2415,6 +2534,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">臭度</t>
     </r>
@@ -2462,6 +2582,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">新房子住了大概有三個月，我家的浴室地板、馬桶及洗臉盆的磁磚上面都會有粉紅色的水漬，有時候洗臉時會聞到有濃濃的消毒藥水味，觀察水在流出來的時候並沒有任何顏色，是透明的，這到底是水質有問題還是有別的原因</t>
     </r>
@@ -2481,6 +2602,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -2500,6 +2622,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">新房子中衛浴區使用三個月磁磚表面會有粉紅色水漬，可能為剛使用時水塔管線設備之積水中鐵氧化物較多，用水後導致衛浴表面積存較多鐵氧化物所致，此經清洗及使用一段時間後，這種現象應可消除。至於洗臉時會聞到消毒水味，可能為新設管線使用接著劑的味道，剛搬入新房子時建議不要直接使用自來水作為飲用水</t>
     </r>
@@ -2519,6 +2642,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">此時可儘量用水於沖廁、擦洗地板、澆花、洗滌衣物等用途，尤其是早上啟動整晚未用自來水的時候</t>
     </r>
@@ -2538,6 +2662,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">。</t>
     </r>
@@ -2557,6 +2682,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">另外，為確保自來水符合安全衛生，避免水媒疾病的發生，台水公司供應之自來水會經加氯消毒處理，且須符合我國「飲用水水質標準」之自由有效餘氯含量</t>
     </r>
@@ -2576,6 +2702,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">毫克／公升，天然災害期間為</t>
     </r>
@@ -2595,6 +2722,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">毫克／公升</t>
     </r>
@@ -2614,6 +2742,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，對一般人而言，這種濃度的自來水聞起來或喝起來是不會有明顯的味道，惟某些嗅覺或味覺較敏感的人仍會感覺到較重的消毒水味，如仍存有</t>
     </r>
@@ -2633,6 +2762,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">質的問題嗎</t>
     </r>
@@ -2652,6 +2782,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">該怎麼辦</t>
     </r>
@@ -2671,6 +2802,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">喝到這種蟲會不會影響健康</t>
     </r>
@@ -2690,6 +2822,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -2709,6 +2842,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">所述紅蟲可能是一種搖蚊科昆蟲的幼蟲，搖蚊科屬雙翅目，同屬雙翅目的昆蟲包括家蠅及蚊子，搖蚊在幼蟲及蛹階段均屬水棲性。</t>
     </r>
@@ -2728,6 +2862,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">自來水供水過程中爬蟲等小動物是無法侵入供水管線內，且因自來水處理流程皆加氯消毒，供水管線保有自由餘氯會維持自來水送到用戶家中仍保有消毒能力，抑制微生物生長。</t>
     </r>
@@ -2747,6 +2882,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">紅蟲可能是經由水溝排水管爬上來，或蓄水塔不乾淨而滋生，建議用戶檢查排水渠避免積水，減少蚊蟲滋生源頭，並定期清洗蓄水塔，蓄水塔應加蓋上鎖。</t>
     </r>
@@ -2766,6 +2902,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">台水公司所供應之自來水會透過嚴格的檢驗管理來為用戶把關，此外各地方主管</t>
     </r>
@@ -2785,6 +2922,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">環保</t>
     </r>
@@ -2804,6 +2942,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">機關亦不定期抽驗自來水水質，民眾可安心使用。</t>
     </r>
@@ -2823,6 +2962,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">來源：</t>
     </r>
@@ -2842,6 +2982,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">自自來水煮開後一直都有白色懸浮物</t>
     </r>
@@ -2861,6 +3002,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">鄰居們說是因為有石灰質，真的可以長期飲用嗎</t>
     </r>
@@ -2880,6 +3022,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">長期喝會不會引發結石</t>
     </r>
@@ -2899,6 +3042,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -2918,6 +3062,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">煮沸開水表層有白色漂浮物乃正常現象，其係因存在於液面之硬度物質</t>
     </r>
@@ -2937,6 +3082,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">您或許遇到過淨水器推銷員拿著一種簡單的電解器放入自來水中，經通電後，自來水開始產生黃褐色固體，當這種固體愈來愈多時，自來水就變成紅褐色渾濁狀，再藉由這種現象批評自來水水質不佳以利其推銷淨水器。</t>
     </r>
@@ -2956,6 +3102,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">事實上，這是利用一般大眾對電解現象不了解來達到推銷之目的，因為自來水含有一些電解質（鈉、鈣、鎂等離子），具有導電性，而淨水器推銷員所使用的電解器常利用鐵棒作為陽極，鋁棒作為陰極，當電解器被放入自來水中並通電後，陽極的鐵棒會因電流作用釋放出鐵離子，鐵離子會立即和水反應變成黃（紅）褐色的氫氧化鐵渾濁物，如將電解器的陽極改換成鋁棒，則會釋放出鋁離子，再與水反應變成乳白色的氫氧化鋁渾濁物。</t>
     </r>
@@ -2975,6 +3122,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">由此可見，電解所產生的渾濁現象並非來自自來水的水質，而是來自電解器陽極所用的材質，請勿受到這種不實的電解實驗誤導。</t>
     </r>
@@ -2994,6 +3142,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">來源：</t>
     </r>
@@ -3013,6 +3162,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">自來水煮沸後，有時表面有一層白色漂浮物或有白色鍋垢，會不會影響人體健康？</t>
     </r>
@@ -3032,6 +3182,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">發布日期</t>
     </r>
@@ -3051,6 +3202,7 @@
         <color theme="1"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">白色漂浮物或稱鍋垢是水中碳酸氫鹽（俗</t>
     </r>
@@ -3088,7 +3240,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3113,9 +3265,30 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="11"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -3124,6 +3297,7 @@
       <color theme="1"/>
       <name val="PingFang SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3175,25 +3349,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3390,8 +3584,8 @@
   </sheetPr>
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="20" zoomScaleNormal="20" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="20" zoomScaleNormal="20" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.515625" defaultRowHeight="15" customHeight="false" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3400,7 +3594,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="75.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="216.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="212.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="61.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="169.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="165.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="36.8"/>
@@ -3408,15 +3602,14 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="151.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="36.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="1.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="54.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="131.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="136.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="179.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="35.55"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16379" min="17" style="1" width="8.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16380" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="68.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3463,144 +3656,144 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="56.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="7" customFormat="true" ht="321" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="7" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="7" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="7" t="n">
         <v>0.411764705882353</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="59.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="7" customFormat="true" ht="295.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="7" t="n">
         <v>0.857142857142857</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J3" s="7" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L3" s="7" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N3" s="7" t="n">
         <v>0.315789473684211</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="123.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="8" customFormat="true" ht="241.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J4" s="8" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L4" s="8" t="n">
         <v>0.5</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N4" s="8" t="n">
         <v>0.266666666666667</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="4" t="s">
         <v>44</v>
       </c>
     </row>
